--- a/Revenue-gross margin-gross profit worldwide 2015-2020.xlsx
+++ b/Revenue-gross margin-gross profit worldwide 2015-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lien\Documents\Unief 2\1e Master\Business intelligence\Project\Excel financiele cijfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lien\Documents\Unief 2\1e Master\Business intelligence\Project\BUSIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C26006-FFE5-4DB3-8AF2-C159F5C4E693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E77281-C16C-4FB1-AC8A-ECFDABE8F7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E92E3238-1F9C-4DC5-BA0A-6CCF2735C283}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{E92E3238-1F9C-4DC5-BA0A-6CCF2735C283}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenues (automotive)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>Q1 2015</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Gross margin Automotive non-GAAP</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,6 +527,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -722,9 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6168E-27E5-47C2-9723-ECD181686574}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -733,6 +737,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -1002,9 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9A8449-7BD6-4890-AAA0-19C5D4B8AC7C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1014,6 +1019,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
